--- a/Assets/Excel/Dialogue.xlsx
+++ b/Assets/Excel/Dialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="22103" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>//BuChongFu</t>
   </si>
@@ -79,34 +79,99 @@
     <t>ME: Here you go.</t>
   </si>
   <si>
+    <t>*Instruction: Left click the object to read more information.*</t>
+  </si>
+  <si>
+    <t>HideText</t>
+  </si>
+  <si>
+    <t>ShowImage</t>
+  </si>
+  <si>
+    <t>Pic/Rabbit</t>
+  </si>
+  <si>
+    <t>Talk2</t>
+  </si>
+  <si>
+    <t>Pic/Bg1</t>
+  </si>
+  <si>
+    <t>Children’s Literature: Children’s Literature is a monthly magazine jointly founded by the China Writer’s Association and the Central Committee of the Youth League. It has been published for decades and has nurtured several generations. The collection of famous writers and fine works has made it a truly national publication.</t>
+  </si>
+  <si>
     <t>School girl: Thank you!</t>
   </si>
   <si>
-    <t>HideText</t>
-  </si>
-  <si>
-    <t>ShowImage</t>
-  </si>
-  <si>
-    <t>Pic/Rabbit</t>
-  </si>
-  <si>
-    <t>Talk2</t>
-  </si>
-  <si>
-    <t>Pic/Bg1</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>ClearAllImage</t>
+    <t>Talk3</t>
+  </si>
+  <si>
+    <t>*A middle aged man approaches.*</t>
+  </si>
+  <si>
+    <t>Lee: Here is a parcel for you.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME: Hey, Lee! Haven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t seen you for a while! What have you been up to?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lee: Just some chores to get paid. You know, I was laid off form the factory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lee: Speaking of which, our old factory is going to be bombed out today. Me and my buddies are going to have a look. Are you coming?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME: Maybe later. Thanks.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -119,13 +184,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -586,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,34 +669,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,98 +705,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +814,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,18 +1174,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="20.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="95.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="13.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="11.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="20.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="95.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1319,7 +1396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="85" customHeight="1" spans="1:4">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1330,7 +1407,7 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1351,41 +1428,107 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A16:A22" si="1">ROW()</f>
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:4">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:4">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:4">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="31.2" spans="1:4">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:4">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
         <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialogue.xlsx
+++ b/Assets/Excel/Dialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="10020"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>//BuChongFu</t>
   </si>
@@ -91,19 +91,22 @@
     <t>Pic/Rabbit</t>
   </si>
   <si>
+    <t>Talk1</t>
+  </si>
+  <si>
+    <t>Pic/Bg1</t>
+  </si>
+  <si>
+    <t>Children’s Literature: Children’s Literature is a monthly magazine jointly founded by the China Writer’s Association and the Central Committee of the Youth League. It has been published for decades and has nurtured several generations. The collection of famous writers and fine works has made it a truly national publication.</t>
+  </si>
+  <si>
+    <t>School girl: Thank you!</t>
+  </si>
+  <si>
+    <t>SkipToTalk</t>
+  </si>
+  <si>
     <t>Talk2</t>
-  </si>
-  <si>
-    <t>Pic/Bg1</t>
-  </si>
-  <si>
-    <t>Children’s Literature: Children’s Literature is a monthly magazine jointly founded by the China Writer’s Association and the Central Committee of the Youth League. It has been published for decades and has nurtured several generations. The collection of famous writers and fine works has made it a truly national publication.</t>
-  </si>
-  <si>
-    <t>School girl: Thank you!</t>
-  </si>
-  <si>
-    <t>Talk3</t>
   </si>
   <si>
     <t>*A middle aged man approaches.*</t>
@@ -1174,18 +1177,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="11.5462962962963" customWidth="1"/>
-    <col min="3" max="3" width="20.7314814814815" customWidth="1"/>
-    <col min="4" max="4" width="95.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="13.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="11.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="20.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="95.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1428,7 +1431,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f t="shared" ref="A16:A22" si="1">ROW()</f>
+        <f>ROW()</f>
         <v>16</v>
       </c>
       <c r="B16" t="s">
@@ -1441,43 +1444,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <f t="shared" si="1"/>
+        <f>ROW()</f>
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A18:A23" si="1">ROW()</f>
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:4">
+    <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1486,13 +1489,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:4">
+    <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1501,13 +1504,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="31.2" spans="1:4">
+    <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1516,19 +1519,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:4">
+    <row r="22" ht="31" spans="1:4">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="15.5" spans="1:4">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialogue.xlsx
+++ b/Assets/Excel/Dialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="22103" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="90">
   <si>
     <t>//BuChongFu</t>
   </si>
@@ -58,7 +58,7 @@
     <t>SetBG</t>
   </si>
   <si>
-    <t>Pic/Bg2</t>
+    <t>Pic/Scene1</t>
   </si>
   <si>
     <t>ShowText</t>
@@ -88,21 +88,24 @@
     <t>ShowImage</t>
   </si>
   <si>
-    <t>Pic/Rabbit</t>
+    <t>Pic/magnify</t>
   </si>
   <si>
     <t>Talk1</t>
   </si>
   <si>
-    <t>Pic/Bg1</t>
-  </si>
-  <si>
-    <t>Children’s Literature: Children’s Literature is a monthly magazine jointly founded by the China Writer’s Association and the Central Committee of the Youth League. It has been published for decades and has nurtured several generations. The collection of famous writers and fine works has made it a truly national publication.</t>
+    <t>Children’s Literature: Children’s Literature is a monthly magazine jointly founded by the China Writer’s Association and the Central Committee of the Youth League.</t>
+  </si>
+  <si>
+    <t>It has been published for decades and has nurtured several generations. The collection of famous writers and fine works has made it a truly national publication.</t>
   </si>
   <si>
     <t>School girl: Thank you!</t>
   </si>
   <si>
+    <t>ClearAllImage</t>
+  </si>
+  <si>
     <t>SkipToTalk</t>
   </si>
   <si>
@@ -174,6 +177,748 @@
         <charset val="134"/>
       </rPr>
       <t>ME: Maybe later. Thanks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Talk3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Parcel: Inside the parcel, there is a letter, a key and a pack of cigarettes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>My dearest friend, I am sorry to ask for your help in this way. After I was laid off from the factory, Xiuying suggested that our whole family have a trip at the beach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Since we are going out for a week, could you help me take care of our goldfish at home? -- Qiming Zhao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME: The cigarettes are from a popular brand but look very old. Something tells me it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s not just about the goldfish. I am going to his apartment to find out.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pic/Scene2</t>
+  </si>
+  <si>
+    <t>Talk4</t>
+  </si>
+  <si>
+    <t>Talk5</t>
+  </si>
+  <si>
+    <t>Talk6</t>
+  </si>
+  <si>
+    <t>Talk7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Left column: The new spring comes with the shining glow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Right column: The old year leaves amidst the falling snow.</t>
+    </r>
+  </si>
+  <si>
+    <t>Upper row: Ring out the old, ring in the new.</t>
+  </si>
+  <si>
+    <t>Pic/Scene3</t>
+  </si>
+  <si>
+    <t>Talk8</t>
+  </si>
+  <si>
+    <t>Talk9</t>
+  </si>
+  <si>
+    <t>Talk10</t>
+  </si>
+  <si>
+    <t>Pic/left</t>
+  </si>
+  <si>
+    <t>Talk11</t>
+  </si>
+  <si>
+    <t>Pic/oldphoto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The wedding day, Qiming Zhao and Xiuying He. I took this photo for them.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pennant: “Comrade Qiming Zhao is rated as advanced worker in the union.”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Me: I remember the day he got this reward. He was so happy...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fish tank: The goldfish looks very healthy. I may take this away with me.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pic/Scene4</t>
+  </si>
+  <si>
+    <t>Talk12</t>
+  </si>
+  <si>
+    <t>Talk13</t>
+  </si>
+  <si>
+    <t>Talk14</t>
+  </si>
+  <si>
+    <t>Talk15</t>
+  </si>
+  <si>
+    <t>Talk16</t>
+  </si>
+  <si>
+    <t>Pic/right</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Certificates: The best ping pong player, first prize in composition, second prize in poetry recitation... Their son is certainly a great student.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Diary:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>May 26</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 1996. The neighbors gave us some vegetables. I am really grateful that there are so many good people helping us through this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>June 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 1996. Our son is very thoughtful at his age. The teacher said he need a new pair of sneakers in order to participate in the municipal contest. After I told him we couldn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">t afford the shoes, he said </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>don</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t worry, I am not going</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>July 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, 1996. Zhao told me some people are collecting leftovers in the market for food. Is this how our lives are going to be?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ping pong: Qiming always practices ping pong with his son after work.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TV bench: There used to be a nice TV here. Qiming and Xiuying bought it when they got married.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pic/Scene5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Now I remember where the cigarettes come from. I bought him as a gift at new year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s eve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(fireworks) ME: Happy new year, my dear friend! This is a gift for you and hey, wish you get promoted, advanced worker of this year!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Zhao: Thank you so much, but I have to keep them for now. My wife is pregnant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME: What a surprise! As we always say, good things come in pairs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>......</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>See? The factory is bombed out.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I can</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t believe it. This place was shut down all of a sudden, and there were so many friends of mine working there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>It</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s quite common these days. I heard that there was a worker found dead behind the factory. It was suicide!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Life is just so unpredictable...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>With bursts of loud noise, the cooling towers are being disintegrated. The glorious history of this factory is buried under the broken concrete, and not only that, but countless people's past is also buried with it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I keep asking myself where Zhao and his family are, but the answer is right in front of me. Maybe I just don</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t want it to be true. The truth is too cruel to see so that he wrapped it with a lie.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“All the honors of yesterday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>as become a distant memory”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“Half a lifetime of hard work and hardship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, and t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onight we walk into the storm again”</t>
     </r>
   </si>
 </sst>
@@ -187,7 +932,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +1089,19 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1177,18 +1935,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="20.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="95.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="13.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="11.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="20.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="95.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1396,10 +2154,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="85" customHeight="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:4">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1411,12 +2169,11 @@
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="41" customHeight="1" spans="1:4">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B15" t="s">
@@ -1425,28 +2182,28 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f>ROW()</f>
+        <f t="shared" ref="A16:A24" si="1">ROW()</f>
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <f>ROW()</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -1455,47 +2212,44 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <f t="shared" ref="A18:A23" si="1">ROW()</f>
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="15.5" spans="1:4">
+    <row r="20" ht="15.6" spans="1:4">
       <c r="A20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A20:A29" si="2">ROW()</f>
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1504,13 +2258,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="15.5" spans="1:4">
+    <row r="21" ht="15.6" spans="1:4">
       <c r="A21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1519,13 +2273,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="31" spans="1:4">
+    <row r="22" ht="15.6" spans="1:4">
       <c r="A22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1534,19 +2288,1165 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:4">
+    <row r="23" ht="31.2" spans="1:4">
       <c r="A23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:4">
+      <c r="A24" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:7">
+      <c r="A26" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:4">
+      <c r="A27" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="31.2" spans="1:4">
+      <c r="A28" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="31.2" spans="1:4">
+      <c r="A29" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" ht="31.2" spans="1:4">
+      <c r="A30" s="2">
+        <f t="shared" ref="A30:A39" si="3">ROW()</f>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>-400</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:7">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>400</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:7">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:7">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>-50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:4">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:4">
+      <c r="A40" s="2">
+        <f t="shared" ref="A40:A49" si="4">ROW()</f>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:4">
+      <c r="A42" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>-450</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>-50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>-600</v>
+      </c>
+      <c r="F49">
+        <v>-100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <f t="shared" ref="A50:A59" si="5">ROW()</f>
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:4">
+      <c r="A52" s="2">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:4">
+      <c r="A55" s="2">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:4">
+      <c r="A56" s="2">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="1:4">
+      <c r="A58" s="2">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <f t="shared" ref="A60:A69" si="6">ROW()</f>
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>-400</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>-100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>-200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>400</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66">
+        <v>-600</v>
+      </c>
+      <c r="F66">
+        <v>-100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" ht="15.6" spans="1:7">
+      <c r="A67" s="2">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67">
+        <v>600</v>
+      </c>
+      <c r="F67">
+        <v>-100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" ht="31.2" spans="1:4">
+      <c r="A68" s="2">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" ht="15.6" spans="1:4">
+      <c r="A70" s="2">
+        <f t="shared" ref="A70:A79" si="7">ROW()</f>
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="32.4" spans="1:4">
+      <c r="A71" s="2">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" ht="48" spans="1:4">
+      <c r="A72" s="2">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="32.4" spans="1:4">
+      <c r="A73" s="2">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="1:4">
+      <c r="A75" s="2">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" ht="31.2" spans="1:4">
+      <c r="A77" s="2">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <f t="shared" ref="A80:A94" si="8">ROW()</f>
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" spans="1:4">
+      <c r="A81" s="2">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" ht="31.2" spans="1:4">
+      <c r="A82" s="2">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" ht="15.6" spans="1:4">
+      <c r="A83" s="2">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" ht="15.6" spans="1:4">
+      <c r="A84" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" ht="15.6" spans="1:4">
+      <c r="A85" s="2">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" ht="15.6" spans="1:4">
+      <c r="A86" s="2">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" ht="31.2" spans="1:4">
+      <c r="A87" s="2">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" ht="31.2" spans="1:4">
+      <c r="A88" s="2">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" ht="15.6" spans="1:4">
+      <c r="A89" s="2">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" ht="46.8" spans="1:4">
+      <c r="A90" s="2">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" ht="46.8" spans="1:4">
+      <c r="A91" s="2">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" ht="15.6" spans="1:4">
+      <c r="A92" s="2">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" ht="15.6" spans="1:4">
+      <c r="A93" s="2">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialogue.xlsx
+++ b/Assets/Excel/Dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
   <si>
     <t>//BuChongFu</t>
   </si>
@@ -58,7 +58,13 @@
     <t>SetBG</t>
   </si>
   <si>
-    <t>Pic/Scene1</t>
+    <t>Pic/op</t>
+  </si>
+  <si>
+    <t>ShowImage</t>
+  </si>
+  <si>
+    <t>Pic/ME</t>
   </si>
   <si>
     <t>ShowText</t>
@@ -70,6 +76,9 @@
     <t>ME: Since magazines are selling well today, I can close this newsstand early.</t>
   </si>
   <si>
+    <t>Pic/girl</t>
+  </si>
+  <si>
     <t>ME: Oh, young lady, which magazine are you looking for?</t>
   </si>
   <si>
@@ -79,13 +88,16 @@
     <t>ME: Here you go.</t>
   </si>
   <si>
+    <t>Pic/zine</t>
+  </si>
+  <si>
     <t>*Instruction: Left click the object to read more information.*</t>
   </si>
   <si>
     <t>HideText</t>
   </si>
   <si>
-    <t>ShowImage</t>
+    <t>ClearAllImage</t>
   </si>
   <si>
     <t>Pic/magnify</t>
@@ -103,9 +115,6 @@
     <t>School girl: Thank you!</t>
   </si>
   <si>
-    <t>ClearAllImage</t>
-  </si>
-  <si>
     <t>SkipToTalk</t>
   </si>
   <si>
@@ -115,6 +124,12 @@
     <t>*A middle aged man approaches.*</t>
   </si>
   <si>
+    <t>Pic/dman</t>
+  </si>
+  <si>
+    <t>Pic/pack</t>
+  </si>
+  <si>
     <t>Lee: Here is a parcel for you.</t>
   </si>
   <si>
@@ -263,7 +278,7 @@
     </r>
   </si>
   <si>
-    <t>Pic/Scene2</t>
+    <t>Pic/door</t>
   </si>
   <si>
     <t>Talk4</t>
@@ -303,7 +318,7 @@
     <t>Upper row: Ring out the old, ring in the new.</t>
   </si>
   <si>
-    <t>Pic/Scene3</t>
+    <t>Pic/living</t>
   </si>
   <si>
     <t>Talk8</t>
@@ -321,7 +336,10 @@
     <t>Talk11</t>
   </si>
   <si>
-    <t>Pic/oldphoto</t>
+    <t>Pic/photo</t>
+  </si>
+  <si>
+    <t>Talk8.1</t>
   </si>
   <si>
     <r>
@@ -360,7 +378,7 @@
     </r>
   </si>
   <si>
-    <t>Pic/Scene4</t>
+    <t>Pic/desk</t>
   </si>
   <si>
     <t>Talk12</t>
@@ -587,7 +605,7 @@
     </r>
   </si>
   <si>
-    <t>Pic/Scene5</t>
+    <t>Pic/ending</t>
   </si>
   <si>
     <r>
@@ -1560,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1592,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1935,10 +1956,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2016,9 +2037,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A18" si="0">ROW()</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()</f>
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2029,6 +2050,12 @@
       </c>
       <c r="D5" t="s">
         <v>16</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2040,10 +2067,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2055,10 +2082,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2070,10 +2097,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2085,10 +2112,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2100,13 +2127,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2115,31 +2142,31 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>-400</v>
+        <v>-350</v>
       </c>
       <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2147,514 +2174,516 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A24" si="1">ROW()</f>
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="41" customHeight="1" spans="1:4">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <f t="shared" ref="A16:A24" si="1">ROW()</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>-350</v>
+      </c>
+      <c r="F16">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>-300</v>
+      </c>
+      <c r="F17">
+        <v>-250</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:4">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="1:4">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="2">
-        <f t="shared" ref="A20:A29" si="2">ROW()</f>
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="G24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:4">
-      <c r="A22" s="2">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <f t="shared" ref="A25:A34" si="2">ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" ht="31.2" spans="1:4">
-      <c r="A23" s="2">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:4">
-      <c r="A24" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="15.6" spans="1:4">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:6">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" ht="31.2" spans="1:4">
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>-450</v>
+      </c>
+      <c r="F27">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:4">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" ht="31.2" spans="1:4">
+    </row>
+    <row r="29" ht="15.6" spans="1:6">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:4">
+      <c r="A30" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:4">
+      <c r="A31" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="31.2" spans="1:4">
+      <c r="A32" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="31.2" spans="1:4">
-      <c r="A30" s="2">
-        <f t="shared" ref="A30:A39" si="3">ROW()</f>
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6" t="s">
+    <row r="33" ht="15.6" spans="1:4">
+      <c r="A33" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:4">
+      <c r="A35" s="2">
+        <f t="shared" ref="A35:A44" si="3">ROW()</f>
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34">
-        <v>-400</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="1:7">
-      <c r="A35" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <v>400</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="15.6" spans="1:7">
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:4">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>270</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="15.6" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>-450</v>
       </c>
       <c r="F37">
-        <v>-50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" ht="15.6" spans="1:4">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:7">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>-400</v>
+      </c>
+      <c r="F38">
+        <v>-250</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:4">
       <c r="A39" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" ht="15.6" spans="1:4">
+    </row>
+    <row r="40" ht="31.2" spans="1:4">
       <c r="A40" s="2">
-        <f t="shared" ref="A40:A49" si="4">ROW()</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" ht="31.2" spans="1:4">
       <c r="A41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" ht="15.6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" ht="31.2" spans="1:4">
       <c r="A42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A45:A54" si="4">ROW()</f>
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2663,790 +2692,1018 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>-450</v>
+        <v>-400</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:7">
       <c r="A47" s="2">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:7">
       <c r="A48" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E48">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>-50</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:7">
       <c r="A49" s="2">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>-600</v>
+        <v>100</v>
       </c>
       <c r="F49">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="1:4">
       <c r="A50" s="2">
-        <f t="shared" ref="A50:A59" si="5">ROW()</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="1:4">
       <c r="A52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="1:4">
       <c r="A54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" ht="15.6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A55:A64" si="5">ROW()</f>
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" ht="15.6" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" ht="15.6" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>-450</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>500</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <f t="shared" ref="A60:A69" si="6">ROW()</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>-50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>-600</v>
+      </c>
+      <c r="F61">
+        <v>-100</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62">
-        <v>-400</v>
-      </c>
-      <c r="F62">
-        <v>200</v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>-100</v>
-      </c>
-      <c r="G63" t="s">
+    <row r="64" ht="15.6" spans="1:7">
+      <c r="A64" s="2">
+        <f>ROW()</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="2">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F64">
         <v>-200</v>
       </c>
       <c r="G64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:4">
+      <c r="A65" s="2">
+        <f>ROW()</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="2">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65">
-        <v>400</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <f t="shared" ref="A66:A75" si="6">ROW()</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66">
-        <v>-600</v>
-      </c>
-      <c r="F66">
-        <v>-100</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" ht="15.6" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67">
-        <v>600</v>
-      </c>
-      <c r="F67">
-        <v>-100</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" ht="31.2" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" ht="15.6" spans="1:4">
       <c r="A68" s="2">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" ht="15.6" spans="1:4">
       <c r="A69" s="2">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" ht="15.6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <f t="shared" ref="A70:A79" si="7">ROW()</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" ht="32.4" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" ht="15.6" spans="1:4">
       <c r="A71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" ht="48" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" ht="32.4" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" ht="15.6" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75">
+        <v>-400</v>
+      </c>
+      <c r="F75">
+        <v>200</v>
+      </c>
+      <c r="G75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A76:A85" si="7">ROW()</f>
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" ht="31.2" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>-100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77">
+        <v>200</v>
+      </c>
+      <c r="F77">
+        <v>-200</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>400</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <v>-600</v>
+      </c>
+      <c r="F79">
+        <v>-100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" ht="15.6" spans="1:7">
       <c r="A80" s="2">
-        <f t="shared" ref="A80:A94" si="8">ROW()</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" ht="15.6" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+      <c r="F80">
+        <v>-100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" ht="31.2" spans="1:4">
       <c r="A81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" ht="31.2" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:4">
       <c r="A83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" ht="32.4" spans="1:4">
+      <c r="A84" s="2">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" ht="48" spans="1:4">
+      <c r="A85" s="2">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" ht="32.4" spans="1:4">
+      <c r="A86" s="2">
+        <f t="shared" ref="A86:A95" si="8">ROW()</f>
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="1:4">
-      <c r="A84" s="2">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" ht="15.6" spans="1:4">
-      <c r="A85" s="2">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" ht="15.6" spans="1:4">
-      <c r="A86" s="2">
-        <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" ht="31.2" spans="1:4">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" ht="31.2" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" ht="15.6" spans="1:4">
       <c r="A88" s="2">
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" ht="15.6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" ht="46.8" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" ht="31.2" spans="1:4">
       <c r="A90" s="2">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" ht="46.8" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" ht="15.6" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" ht="15.6" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" ht="15.6" spans="1:4">
       <c r="A94" s="2">
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" ht="31.2" spans="1:4">
+      <c r="A95" s="2">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" ht="15.6" spans="1:4">
+      <c r="A96" s="2">
+        <f t="shared" ref="A96:A107" si="9">ROW()</f>
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" ht="15.6" spans="1:4">
+      <c r="A97" s="2">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" ht="15.6" spans="1:4">
+      <c r="A98" s="2">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" ht="15.6" spans="1:4">
+      <c r="A99" s="2">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" ht="31.2" spans="1:4">
+      <c r="A100" s="2">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" ht="31.2" spans="1:4">
+      <c r="A101" s="2">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" ht="15.6" spans="1:4">
+      <c r="A102" s="2">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" ht="46.8" spans="1:4">
+      <c r="A103" s="2">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" ht="46.8" spans="1:4">
+      <c r="A104" s="2">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" ht="15.6" spans="1:4">
+      <c r="A105" s="2">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" ht="15.6" spans="1:4">
+      <c r="A106" s="2">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialogue.xlsx
+++ b/Assets/Excel/Dialogue.xlsx
@@ -637,15 +637,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(fireworks) ME: Happy new year, my dear friend! This is a gift for you and hey, wish you get promoted, advanced worker of this year!</t>
-    </r>
+    <t>(Many years ago) ME: Happy new year, my dear friend! This is a gift for you and hey, wish you get promoted, advanced worker of this year!</t>
   </si>
   <si>
     <r>
@@ -681,156 +673,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>See? The factory is bombed out.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I can</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t believe it. This place was shut down all of a sudden, and there were so many friends of mine working there.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>It</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s quite common these days. I heard that there was a worker found dead behind the factory. It was suicide!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Life is just so unpredictable...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
+    <t>Worker A: See? The factory is bombed out.</t>
+  </si>
+  <si>
+    <t>Worker B: I can’t believe it. This place was shut down all of a sudden, and there were so many friends of mine working there.</t>
+  </si>
+  <si>
+    <t>Worker A: It’s quite common these days. I heard that there was a worker found dead behind the factory. It was suicide!</t>
+  </si>
+  <si>
+    <t>Worker B: Life is just so unpredictable...</t>
   </si>
   <si>
     <r>
@@ -1958,8 +1810,8 @@
   <sheetPr/>
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2052,10 +1904,10 @@
         <v>16</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2163,10 +2015,10 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>-350</v>
+        <v>-401</v>
       </c>
       <c r="F12">
-        <v>-250</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2223,10 +2075,10 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>-350</v>
+        <v>-401</v>
       </c>
       <c r="F16">
-        <v>-250</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2244,10 +2096,10 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>-300</v>
+        <v>-290</v>
       </c>
       <c r="F17">
-        <v>-250</v>
+        <v>-418</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2400,10 +2252,10 @@
         <v>37</v>
       </c>
       <c r="E27">
-        <v>-450</v>
+        <v>-416</v>
       </c>
       <c r="F27">
-        <v>-250</v>
+        <v>-380</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:4">
@@ -2436,10 +2288,10 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:4">
@@ -2557,10 +2409,10 @@
         <v>37</v>
       </c>
       <c r="E37">
-        <v>-450</v>
+        <v>-416</v>
       </c>
       <c r="F37">
-        <v>-250</v>
+        <v>-380</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:7">
@@ -2578,10 +2430,10 @@
         <v>28</v>
       </c>
       <c r="E38">
-        <v>-400</v>
+        <v>-263</v>
       </c>
       <c r="F38">
-        <v>-250</v>
+        <v>-407</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -2701,10 +2553,10 @@
         <v>28</v>
       </c>
       <c r="E46">
-        <v>-400</v>
+        <v>-365</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-257</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
@@ -2725,10 +2577,10 @@
         <v>28</v>
       </c>
       <c r="E47">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-257</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -2749,10 +2601,10 @@
         <v>28</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F48">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
         <v>51</v>
@@ -2773,10 +2625,10 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>-167</v>
       </c>
       <c r="F49">
-        <v>-50</v>
+        <v>-415</v>
       </c>
       <c r="G49" t="s">
         <v>52</v>
@@ -2853,7 +2705,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <f t="shared" ref="A55:A64" si="5">ROW()</f>
+        <f t="shared" ref="A55:A65" si="5">ROW()</f>
         <v>55</v>
       </c>
       <c r="B55" t="s">
@@ -2905,10 +2757,10 @@
         <v>28</v>
       </c>
       <c r="E58">
-        <v>-450</v>
+        <v>-548</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
         <v>57</v>
@@ -2929,10 +2781,10 @@
         <v>28</v>
       </c>
       <c r="E59">
-        <v>500</v>
+        <v>764</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>-24</v>
       </c>
       <c r="G59" t="s">
         <v>58</v>
@@ -2953,10 +2805,10 @@
         <v>28</v>
       </c>
       <c r="E60">
-        <v>500</v>
+        <v>846</v>
       </c>
       <c r="F60">
-        <v>-50</v>
+        <v>-379</v>
       </c>
       <c r="G60" t="s">
         <v>59</v>
@@ -2977,10 +2829,10 @@
         <v>60</v>
       </c>
       <c r="E61">
-        <v>-600</v>
+        <v>-859</v>
       </c>
       <c r="F61">
-        <v>-100</v>
+        <v>-103</v>
       </c>
       <c r="G61" t="s">
         <v>61</v>
@@ -3015,7 +2867,7 @@
     </row>
     <row r="64" ht="15.6" spans="1:7">
       <c r="A64" s="2">
-        <f>ROW()</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="B64" t="s">
@@ -3028,10 +2880,10 @@
         <v>28</v>
       </c>
       <c r="E64">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>-200</v>
+        <v>-136</v>
       </c>
       <c r="G64" t="s">
         <v>63</v>
@@ -3039,7 +2891,7 @@
     </row>
     <row r="65" ht="15.6" spans="1:4">
       <c r="A65" s="2">
-        <f>ROW()</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="B65" t="s">
@@ -3190,10 +3042,10 @@
         <v>28</v>
       </c>
       <c r="E75">
-        <v>-400</v>
+        <v>-382</v>
       </c>
       <c r="F75">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
         <v>69</v>
@@ -3214,10 +3066,10 @@
         <v>28</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="F76">
-        <v>-100</v>
+        <v>-337</v>
       </c>
       <c r="G76" t="s">
         <v>70</v>
@@ -3238,10 +3090,10 @@
         <v>28</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="F77">
-        <v>-200</v>
+        <v>-405</v>
       </c>
       <c r="G77" t="s">
         <v>71</v>
@@ -3262,10 +3114,10 @@
         <v>28</v>
       </c>
       <c r="E78">
-        <v>400</v>
+        <v>699</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="G78" t="s">
         <v>72</v>
@@ -3286,10 +3138,10 @@
         <v>60</v>
       </c>
       <c r="E79">
-        <v>-600</v>
+        <v>-890</v>
       </c>
       <c r="F79">
-        <v>-100</v>
+        <v>-188</v>
       </c>
       <c r="G79" t="s">
         <v>73</v>
@@ -3310,10 +3162,10 @@
         <v>74</v>
       </c>
       <c r="E80">
-        <v>600</v>
+        <v>890</v>
       </c>
       <c r="F80">
-        <v>-100</v>
+        <v>-188</v>
       </c>
       <c r="G80" t="s">
         <v>52</v>
